--- a/data/trans_bre/P12B-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12B-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,79</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>13,04%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>19,22%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-37,85%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>12,94%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.063203776779319</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.716335589752827</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.880830946832234</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.498120314371759</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1691020434226423</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1517757612309775</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.383879186536672</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1690899975674509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 5,9</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 5,04</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,23; 1,76</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,75; 8,44</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-46,07; 158,93</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-57,73; 206,92</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-73,17; 30,37</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-46,6; 160,49</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.308225854035006</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.671814436504299</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.52240128103554</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.470625296803687</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4594358941198945</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5878205899046721</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7303078466395518</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4724303188589226</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.078412718807626</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.039596186448586</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.612299723982074</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.26321076086353</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.576673890198949</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.032395763851094</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.2619963011027671</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.87074318541618</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-7,62%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-13,59%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-27,05%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>61,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,97; 5,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,49; 4,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; 3,67</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 21,88</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-65,05; 133,36</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-59,22; 94,24</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-66,02; 104,39</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-41,58; 554,76</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.075819693746785</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.08685446214146825</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.238040000557121</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.862942769259124</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.3182519333470584</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.01111708823653637</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.274931599322593</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4951464040078415</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-13,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-25,3</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-26,24</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-91,26%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-84,78%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.66845768515886</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.689059047059441</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.832330789605665</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.184127512900956</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.780340758960513</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5419264096407671</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6597037543861223</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4511042160889445</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-31,22; -2,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-65,04; -2,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 14,59</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-67,01; 3,36</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.448940949710448</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.589451204663938</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.510899738697817</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.86701761342061</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.7394144185246007</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.279898132512952</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.081220919962314</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.995308462463647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,73</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-16,03%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-31,35%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-27,11%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-3,2%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-11.8093423761427</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-20.70527415246755</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.832899097997985</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-26.16493211200385</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.8828867631413773</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.845490711320609</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,2; 2,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,03; 1,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,38; 1,28</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,46; 7,3</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-52,64; 39,82</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-68,71; 25,97</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-58,25; 21,17</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-55,47; 98,04</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-27.98367284778766</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-59.55103010618661</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-66.76019991069433</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-2.43419764842502</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-1.03733417188781</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.29245948817708</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.718152240880145</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.962139520239802</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.84007915457656</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.236582627910488</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.6839012607855868</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2373611577571099</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.2303442058245528</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2731761337729597</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.06220214083851628</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.685485529604334</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.513497021464656</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.397712997538204</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-9.454122144420559</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.5972335521329697</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6294242092623341</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5770735638197539</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5793870177942345</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.593240018287503</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.15876138735544</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.378568616018401</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.963765155864826</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.3084798215723828</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4115475803289734</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2432811513232586</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.835605815378952</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1011,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
